--- a/nba2k26_editor/Offsets/Teams.xlsx
+++ b/nba2k26_editor/Offsets/Teams.xlsx
@@ -516,7 +516,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>City Name</t>
+          <t>Historic Year</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -526,32 +526,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CITYNAME</t>
+          <t>HISTORICYEAR</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>City Name, Team Vitals - CITYNAME</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x2E6 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0x2E6 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0x2E6 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
+          <t>Historic Year</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0x306 (type=WString, length=24)</t>
+          <t>0x161a (type=Integer, length=7, startBit=3)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -559,7 +547,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Historic Year</t>
+          <t>Team Business - ARENA_OPERATIONS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -569,28 +557,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HISTORICYEAR</t>
+          <t>TEAMBUSINESSARENAOPERATIONS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Historic Year</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0x161a (type=Integer, length=7, startBit=3)</t>
-        </is>
-      </c>
+          <t>Team Business - ARENA_OPERATIONS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0xFF8 (type=number, length=32, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0xFF8 (type=number, length=32, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0xFF8 (type=number, length=32, startBit=0)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Team Business - ARENA_OPERATIONS</t>
+          <t>Team Business - BURGER</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -600,27 +596,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSARENAOPERATIONS</t>
+          <t>TEAMBUSINESSBURGER</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Team Business - ARENA_OPERATIONS</t>
+          <t>Team Business - BURGER</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0xFF8 (type=number, length=32, startBit=0)</t>
+          <t>0xFA8 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0xFF8 (type=number, length=32, startBit=0)</t>
+          <t>0xFA8 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0xFF8 (type=number, length=32, startBit=0)</t>
+          <t>0xFA8 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -629,7 +625,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Team Business - BURGER</t>
+          <t>Team Business - COFFEE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -639,27 +635,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSBURGER</t>
+          <t>TEAMBUSINESSCOFFEE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Team Business - BURGER</t>
+          <t>Team Business - COFFEE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0xFA8 (type=float, length=32, startBit=0)</t>
+          <t>0xFAC (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0xFA8 (type=float, length=32, startBit=0)</t>
+          <t>0xFAC (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0xFA8 (type=float, length=32, startBit=0)</t>
+          <t>0xFAC (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -668,7 +664,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Team Business - COFFEE</t>
+          <t>Team Business - CONCESSIONS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -678,27 +674,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSCOFFEE</t>
+          <t>TEAMBUSINESSCONCESSIONS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Team Business - COFFEE</t>
+          <t>Team Business - CONCESSIONS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0xFAC (type=float, length=32, startBit=0)</t>
+          <t>0xFE0 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0xFAC (type=float, length=32, startBit=0)</t>
+          <t>0xFE0 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0xFAC (type=float, length=32, startBit=0)</t>
+          <t>0xFE0 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -707,7 +703,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Team Business - CONCESSIONS</t>
+          <t>Team Business - GATE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -717,27 +713,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSCONCESSIONS</t>
+          <t>TEAMBUSINESSGATE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Team Business - CONCESSIONS</t>
+          <t>Team Business - GATE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0xFE0 (type=number, length=32, startBit=0)</t>
+          <t>0xFD8 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0xFE0 (type=number, length=32, startBit=0)</t>
+          <t>0xFD8 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0xFE0 (type=number, length=32, startBit=0)</t>
+          <t>0xFD8 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -746,7 +742,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Team Business - GATE</t>
+          <t>Team Business - HAT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -756,27 +752,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSGATE</t>
+          <t>TEAMBUSINESSHAT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Team Business - GATE</t>
+          <t>Team Business - HAT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0xFD8 (type=number, length=32, startBit=0)</t>
+          <t>0xFC0 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0xFD8 (type=number, length=32, startBit=0)</t>
+          <t>0xFC0 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0xFD8 (type=number, length=32, startBit=0)</t>
+          <t>0xFC0 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -785,7 +781,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Team Business - HAT</t>
+          <t>Team Business - HOT_DOG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -795,27 +791,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSHAT</t>
+          <t>TEAMBUSINESSHOTDOG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Team Business - HAT</t>
+          <t>Team Business - HOT_DOG</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0xFC0 (type=float, length=32, startBit=0)</t>
+          <t>0xFA0 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0xFC0 (type=float, length=32, startBit=0)</t>
+          <t>0xFA0 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0xFC0 (type=float, length=32, startBit=0)</t>
+          <t>0xFA0 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -824,7 +820,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Team Business - HOT_DOG</t>
+          <t>Team Business - ICE_CREAM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -834,27 +830,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSHOTDOG</t>
+          <t>TEAMBUSINESSICECREAM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Team Business - HOT_DOG</t>
+          <t>Team Business - ICE_CREAM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0xFA0 (type=float, length=32, startBit=0)</t>
+          <t>0xFB4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0xFA0 (type=float, length=32, startBit=0)</t>
+          <t>0xFB4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0xFA0 (type=float, length=32, startBit=0)</t>
+          <t>0xFB4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -863,7 +859,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Team Business - ICE_CREAM</t>
+          <t>Team Business - IN-ARENA_ADVERTISING</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -873,27 +869,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSICECREAM</t>
+          <t>TEAMBUSINESSINARENAADVERTISING</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Team Business - ICE_CREAM</t>
+          <t>Team Business - IN-ARENA_ADVERTISING</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0xFB4 (type=float, length=32, startBit=0)</t>
+          <t>0xFE8 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0xFB4 (type=float, length=32, startBit=0)</t>
+          <t>0xFE8 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0xFB4 (type=float, length=32, startBit=0)</t>
+          <t>0xFE8 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -902,7 +898,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Team Business - IN-ARENA_ADVERTISING</t>
+          <t>Team Business - MEDIA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -912,27 +908,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSINARENAADVERTISING</t>
+          <t>TEAMBUSINESSMEDIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Team Business - IN-ARENA_ADVERTISING</t>
+          <t>Team Business - MEDIA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0xFE8 (type=number, length=32, startBit=0)</t>
+          <t>0xFE4 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0xFE8 (type=number, length=32, startBit=0)</t>
+          <t>0xFE4 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0xFE8 (type=number, length=32, startBit=0)</t>
+          <t>0xFE4 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -941,7 +937,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Team Business - MEDIA</t>
+          <t>Team Business - MERCHANDISE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -951,27 +947,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSMEDIA</t>
+          <t>TEAMBUSINESSMERCHANDISE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Team Business - MEDIA</t>
+          <t>Team Business - MERCHANDISE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0xFE4 (type=number, length=32, startBit=0)</t>
+          <t>0xFDC (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0xFE4 (type=number, length=32, startBit=0)</t>
+          <t>0xFDC (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0xFE4 (type=number, length=32, startBit=0)</t>
+          <t>0xFDC (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -980,7 +976,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Team Business - MERCHANDISE</t>
+          <t>Team Business - NACHOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -990,27 +986,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSMERCHANDISE</t>
+          <t>TEAMBUSINESSNACHOS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Team Business - MERCHANDISE</t>
+          <t>Team Business - NACHOS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0xFDC (type=number, length=32, startBit=0)</t>
+          <t>0xFB0 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0xFDC (type=number, length=32, startBit=0)</t>
+          <t>0xFB0 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0xFDC (type=number, length=32, startBit=0)</t>
+          <t>0xFB0 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1019,7 +1015,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Team Business - NACHOS</t>
+          <t>Team Business - PARKING</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1029,27 +1025,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSNACHOS</t>
+          <t>TEAMBUSINESSPARKING</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Team Business - NACHOS</t>
+          <t>Team Business - PARKING</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0xFB0 (type=float, length=32, startBit=0)</t>
+          <t>0xF9C (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0xFB0 (type=float, length=32, startBit=0)</t>
+          <t>0xF9C (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0xFB0 (type=float, length=32, startBit=0)</t>
+          <t>0xF9C (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1058,7 +1054,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Team Business - PARKING</t>
+          <t>Team Business - PLAYER_BUDGET</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1068,27 +1064,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSPARKING</t>
+          <t>TEAMBUSINESSPLAYERBUDGET</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Team Business - PARKING</t>
+          <t>Team Business - PLAYER_BUDGET</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0xF9C (type=float, length=32, startBit=0)</t>
+          <t>0x1014 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0xF9C (type=float, length=32, startBit=0)</t>
+          <t>0x1014 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0xF9C (type=float, length=32, startBit=0)</t>
+          <t>0x1014 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1097,7 +1093,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Team Business - PLAYER_BUDGET</t>
+          <t>Team Business - PLAYER_PAYROLL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1107,27 +1103,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSPLAYERBUDGET</t>
+          <t>TEAMBUSINESSPLAYERPAYROLL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Team Business - PLAYER_BUDGET</t>
+          <t>Team Business - PLAYER_PAYROLL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x1014 (type=number, length=32, startBit=0)</t>
+          <t>0xFF4 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0x1014 (type=number, length=32, startBit=0)</t>
+          <t>0xFF4 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0x1014 (type=number, length=32, startBit=0)</t>
+          <t>0xFF4 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1136,7 +1132,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Team Business - PLAYER_PAYROLL</t>
+          <t>Team Business - PLAYOFFS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1146,27 +1142,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSPLAYERPAYROLL</t>
+          <t>TEAMBUSINESSPLAYOFFS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Team Business - PLAYER_PAYROLL</t>
+          <t>Team Business - PLAYOFFS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0xFF4 (type=number, length=32, startBit=0)</t>
+          <t>0xFF0 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0xFF4 (type=number, length=32, startBit=0)</t>
+          <t>0xFF0 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0xFF4 (type=number, length=32, startBit=0)</t>
+          <t>0xFF0 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1175,7 +1171,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Team Business - PLAYOFFS</t>
+          <t>Team Business - PLAYOFFS#1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1185,27 +1181,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSPLAYOFFS</t>
+          <t>TEAMBUSINESSPLAYOFFS1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Team Business - PLAYOFFS</t>
+          <t>Team Business - PLAYOFFS#1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0xFF0 (type=number, length=32, startBit=0)</t>
+          <t>0x100C (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0xFF0 (type=number, length=32, startBit=0)</t>
+          <t>0x100C (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0xFF0 (type=number, length=32, startBit=0)</t>
+          <t>0x100C (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1214,7 +1210,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Team Business - PLAYOFFS#1</t>
+          <t>Team Business - PROGRAM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1224,27 +1220,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSPLAYOFFS1</t>
+          <t>TEAMBUSINESSPROGRAM</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Team Business - PLAYOFFS#1</t>
+          <t>Team Business - PROGRAM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x100C (type=number, length=32, startBit=0)</t>
+          <t>0xFBC (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0x100C (type=number, length=32, startBit=0)</t>
+          <t>0xFBC (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0x100C (type=number, length=32, startBit=0)</t>
+          <t>0xFBC (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1253,7 +1249,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Team Business - PROGRAM</t>
+          <t>Team Business - PROMOTIONS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1263,27 +1259,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSPROGRAM</t>
+          <t>TEAMBUSINESSPROMOTIONS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Team Business - PROGRAM</t>
+          <t>Team Business - PROMOTIONS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0xFBC (type=float, length=32, startBit=0)</t>
+          <t>0xFFC (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0xFBC (type=float, length=32, startBit=0)</t>
+          <t>0xFFC (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0xFBC (type=float, length=32, startBit=0)</t>
+          <t>0xFFC (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1292,7 +1288,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Team Business - PROMOTIONS</t>
+          <t>Team Business - RESTAURANT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1302,27 +1298,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSPROMOTIONS</t>
+          <t>TEAMBUSINESSRESTAURANT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Team Business - PROMOTIONS</t>
+          <t>Team Business - RESTAURANT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0xFFC (type=number, length=32, startBit=0)</t>
+          <t>0xFB8 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0xFFC (type=number, length=32, startBit=0)</t>
+          <t>0xFB8 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0xFFC (type=number, length=32, startBit=0)</t>
+          <t>0xFB8 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1331,7 +1327,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Team Business - RESTAURANT</t>
+          <t>Team Business - SODA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1341,27 +1337,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSRESTAURANT</t>
+          <t>TEAMBUSINESSSODA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Team Business - RESTAURANT</t>
+          <t>Team Business - SODA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0xFB8 (type=float, length=32, startBit=0)</t>
+          <t>0xFA4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0xFB8 (type=float, length=32, startBit=0)</t>
+          <t>0xFA4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0xFB8 (type=float, length=32, startBit=0)</t>
+          <t>0xFA4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1370,7 +1366,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Team Business - SODA</t>
+          <t>Team Business - SOUVENIR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1380,27 +1376,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSSODA</t>
+          <t>TEAMBUSINESSSOUVENIR</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Team Business - SODA</t>
+          <t>Team Business - SOUVENIR</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0xFA4 (type=float, length=32, startBit=0)</t>
+          <t>0xFC4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0xFA4 (type=float, length=32, startBit=0)</t>
+          <t>0xFC4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0xFA4 (type=float, length=32, startBit=0)</t>
+          <t>0xFC4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1409,7 +1405,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Team Business - SOUVENIR</t>
+          <t>Team Business - STAFF_BUDGET</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1419,27 +1415,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSSOUVENIR</t>
+          <t>TEAMBUSINESSSTAFFBUDGET</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Team Business - SOUVENIR</t>
+          <t>Team Business - STAFF_BUDGET</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0xFC4 (type=float, length=32, startBit=0)</t>
+          <t>0x1018 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0xFC4 (type=float, length=32, startBit=0)</t>
+          <t>0x1018 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0xFC4 (type=float, length=32, startBit=0)</t>
+          <t>0x1018 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1448,7 +1444,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Team Business - STAFF_BUDGET</t>
+          <t>Team Business - STAFF_PAYROLL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1458,27 +1454,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSSTAFFBUDGET</t>
+          <t>TEAMBUSINESSSTAFFPAYROLL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Team Business - STAFF_BUDGET</t>
+          <t>Team Business - STAFF_PAYROLL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x1018 (type=number, length=32, startBit=0)</t>
+          <t>0x1000 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0x1018 (type=number, length=32, startBit=0)</t>
+          <t>0x1000 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0x1018 (type=number, length=32, startBit=0)</t>
+          <t>0x1000 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1487,7 +1483,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Team Business - STAFF_PAYROLL</t>
+          <t>Team Business - TEAM_OPERATIONS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1497,27 +1493,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSSTAFFPAYROLL</t>
+          <t>TEAMBUSINESSTEAMOPERATIONS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Team Business - STAFF_PAYROLL</t>
+          <t>Team Business - TEAM_OPERATIONS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x1000 (type=number, length=32, startBit=0)</t>
+          <t>0xFCC (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0x1000 (type=number, length=32, startBit=0)</t>
+          <t>0xFCC (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0x1000 (type=number, length=32, startBit=0)</t>
+          <t>0xFCC (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1526,7 +1522,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Team Business - TEAM_OPERATIONS</t>
+          <t>Team Business - TEAM_OPERATIONS#1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1536,27 +1532,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSTEAMOPERATIONS</t>
+          <t>TEAMBUSINESSTEAMOPERATIONS1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Team Business - TEAM_OPERATIONS</t>
+          <t>Team Business - TEAM_OPERATIONS#1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0xFCC (type=number, length=32, startBit=0)</t>
+          <t>0x1004 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0xFCC (type=number, length=32, startBit=0)</t>
+          <t>0x1004 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0xFCC (type=number, length=32, startBit=0)</t>
+          <t>0x1004 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1565,7 +1561,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Team Business - TEAM_OPERATIONS#1</t>
+          <t>Team Business - TICKET</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1575,27 +1571,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSTEAMOPERATIONS1</t>
+          <t>TEAMBUSINESSTICKET</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Team Business - TEAM_OPERATIONS#1</t>
+          <t>Team Business - TICKET</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x1004 (type=number, length=32, startBit=0)</t>
+          <t>0xF98 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0x1004 (type=number, length=32, startBit=0)</t>
+          <t>0xF98 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0x1004 (type=number, length=32, startBit=0)</t>
+          <t>0xF98 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1604,7 +1600,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Team Business - TICKET</t>
+          <t>Team Business - UNALLOCATED_FUNDS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1614,27 +1610,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSTICKET</t>
+          <t>TEAMBUSINESSUNALLOCATEDFUNDS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Team Business - TICKET</t>
+          <t>Team Business - UNALLOCATED_FUNDS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0xF98 (type=float, length=32, startBit=0)</t>
+          <t>0x1010 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0xF98 (type=float, length=32, startBit=0)</t>
+          <t>0x1010 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0xF98 (type=float, length=32, startBit=0)</t>
+          <t>0x1010 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1643,7 +1639,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Team Business - UNALLOCATED_FUNDS</t>
+          <t>Team Jersey - JERSEY_AWAY</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1653,27 +1649,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TEAMBUSINESSUNALLOCATEDFUNDS</t>
+          <t>TEAMJERSEYJERSEYAWAY</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Team Business - UNALLOCATED_FUNDS</t>
+          <t>Team Jersey - JERSEY_AWAY</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x1010 (type=number, length=32, startBit=0)</t>
+          <t>0xB80 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0x1010 (type=number, length=32, startBit=0)</t>
+          <t>0xB80 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0x1010 (type=number, length=32, startBit=0)</t>
+          <t>0xB80 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1682,7 +1678,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_AWAY</t>
+          <t>Team Jersey - JERSEY_HOME</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1692,27 +1688,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYAWAY</t>
+          <t>TEAMJERSEYJERSEYHOME</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_AWAY</t>
+          <t>Team Jersey - JERSEY_HOME</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0xB80 (type=combo, length=8, startBit=0)</t>
+          <t>0xB78 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0xB80 (type=combo, length=8, startBit=0)</t>
+          <t>0xB78 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0xB80 (type=combo, length=8, startBit=0)</t>
+          <t>0xB78 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1721,7 +1717,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_HOME</t>
+          <t>Team Jersey - JERSEY_N#10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1731,27 +1727,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYHOME</t>
+          <t>TEAMJERSEYJERSEYN10</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_HOME</t>
+          <t>Team Jersey - JERSEY_N#10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0xB78 (type=combo, length=8, startBit=0)</t>
+          <t>0xBC0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0xB78 (type=combo, length=8, startBit=0)</t>
+          <t>0xBC0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0xB78 (type=combo, length=8, startBit=0)</t>
+          <t>0xBC0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1760,7 +1756,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#10</t>
+          <t>Team Jersey - JERSEY_N#11</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1770,27 +1766,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN10</t>
+          <t>TEAMJERSEYJERSEYN11</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#10</t>
+          <t>Team Jersey - JERSEY_N#11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0xBC0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBC8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0xBC0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBC8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0xBC0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBC8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1799,7 +1795,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#11</t>
+          <t>Team Jersey - JERSEY_N#12</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1809,27 +1805,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN11</t>
+          <t>TEAMJERSEYJERSEYN12</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#11</t>
+          <t>Team Jersey - JERSEY_N#12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0xBC8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBD0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0xBC8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBD0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0xBC8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBD0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1838,7 +1834,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#12</t>
+          <t>Team Jersey - JERSEY_N#13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1848,27 +1844,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN12</t>
+          <t>TEAMJERSEYJERSEYN13</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#12</t>
+          <t>Team Jersey - JERSEY_N#13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0xBD0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBD8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0xBD0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBD8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0xBD0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBD8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1877,7 +1873,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#13</t>
+          <t>Team Jersey - JERSEY_N#14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1887,27 +1883,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN13</t>
+          <t>TEAMJERSEYJERSEYN14</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#13</t>
+          <t>Team Jersey - JERSEY_N#14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0xBD8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBE0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0xBD8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBE0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0xBD8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBE0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1916,7 +1912,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#14</t>
+          <t>Team Jersey - JERSEY_N#15</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1926,27 +1922,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN14</t>
+          <t>TEAMJERSEYJERSEYN15</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#14</t>
+          <t>Team Jersey - JERSEY_N#15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0xBE0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBE8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0xBE0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBE8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0xBE0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBE8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1955,7 +1951,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#15</t>
+          <t>Team Jersey - JERSEY_N#16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1965,27 +1961,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN15</t>
+          <t>TEAMJERSEYJERSEYN16</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#15</t>
+          <t>Team Jersey - JERSEY_N#16</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0xBE8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBF0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0xBE8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBF0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0xBE8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBF0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1994,7 +1990,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#16</t>
+          <t>Team Jersey - JERSEY_N#17</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2004,27 +2000,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN16</t>
+          <t>TEAMJERSEYJERSEYN17</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#16</t>
+          <t>Team Jersey - JERSEY_N#17</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0xBF0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBF8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0xBF0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBF8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0xBF0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBF8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2033,7 +2029,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#17</t>
+          <t>Team Jersey - JERSEY_N#18</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2043,27 +2039,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN17</t>
+          <t>TEAMJERSEYJERSEYN18</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#17</t>
+          <t>Team Jersey - JERSEY_N#18</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0xBF8 (type=combo, length=8, startBit=0)</t>
+          <t>0xC00 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0xBF8 (type=combo, length=8, startBit=0)</t>
+          <t>0xC00 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0xBF8 (type=combo, length=8, startBit=0)</t>
+          <t>0xC00 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2072,7 +2068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#18</t>
+          <t>Team Jersey - JERSEY_N#19</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2082,27 +2078,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN18</t>
+          <t>TEAMJERSEYJERSEYN19</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#18</t>
+          <t>Team Jersey - JERSEY_N#19</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0xC00 (type=combo, length=8, startBit=0)</t>
+          <t>0xC08 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0xC00 (type=combo, length=8, startBit=0)</t>
+          <t>0xC08 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0xC00 (type=combo, length=8, startBit=0)</t>
+          <t>0xC08 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2111,7 +2107,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#19</t>
+          <t>Team Jersey - JERSEY_N#20</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2121,27 +2117,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN19</t>
+          <t>TEAMJERSEYJERSEYN20</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#19</t>
+          <t>Team Jersey - JERSEY_N#20</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0xC08 (type=combo, length=8, startBit=0)</t>
+          <t>0xC10 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0xC08 (type=combo, length=8, startBit=0)</t>
+          <t>0xC10 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0xC08 (type=combo, length=8, startBit=0)</t>
+          <t>0xC10 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2150,7 +2146,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#20</t>
+          <t>Team Jersey - JERSEY_N#21</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2160,27 +2156,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN20</t>
+          <t>TEAMJERSEYJERSEYN21</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#20</t>
+          <t>Team Jersey - JERSEY_N#21</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0xC10 (type=combo, length=8, startBit=0)</t>
+          <t>0xC18 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0xC10 (type=combo, length=8, startBit=0)</t>
+          <t>0xC18 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0xC10 (type=combo, length=8, startBit=0)</t>
+          <t>0xC18 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2189,7 +2185,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#21</t>
+          <t>Team Jersey - JERSEY_N#22</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2199,27 +2195,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN21</t>
+          <t>TEAMJERSEYJERSEYN22</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#21</t>
+          <t>Team Jersey - JERSEY_N#22</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0xC18 (type=combo, length=8, startBit=0)</t>
+          <t>0xC20 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0xC18 (type=combo, length=8, startBit=0)</t>
+          <t>0xC20 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0xC18 (type=combo, length=8, startBit=0)</t>
+          <t>0xC20 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2228,7 +2224,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#22</t>
+          <t>Team Jersey - JERSEY_N#23</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2238,27 +2234,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN22</t>
+          <t>TEAMJERSEYJERSEYN23</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#22</t>
+          <t>Team Jersey - JERSEY_N#23</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0xC20 (type=combo, length=8, startBit=0)</t>
+          <t>0xC28 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0xC20 (type=combo, length=8, startBit=0)</t>
+          <t>0xC28 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0xC20 (type=combo, length=8, startBit=0)</t>
+          <t>0xC28 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -2267,7 +2263,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#23</t>
+          <t>Team Jersey - JERSEY_N#24</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2277,27 +2273,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN23</t>
+          <t>TEAMJERSEYJERSEYN24</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#23</t>
+          <t>Team Jersey - JERSEY_N#24</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0xC28 (type=combo, length=8, startBit=0)</t>
+          <t>0xC30 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0xC28 (type=combo, length=8, startBit=0)</t>
+          <t>0xC30 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0xC28 (type=combo, length=8, startBit=0)</t>
+          <t>0xC30 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2306,7 +2302,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#24</t>
+          <t>Team Jersey - JERSEY_N#25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2316,27 +2312,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN24</t>
+          <t>TEAMJERSEYJERSEYN25</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#24</t>
+          <t>Team Jersey - JERSEY_N#25</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0xC30 (type=combo, length=8, startBit=0)</t>
+          <t>0xC38 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0xC30 (type=combo, length=8, startBit=0)</t>
+          <t>0xC38 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0xC30 (type=combo, length=8, startBit=0)</t>
+          <t>0xC38 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2345,7 +2341,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#25</t>
+          <t>Team Jersey - JERSEY_N#26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2355,27 +2351,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN25</t>
+          <t>TEAMJERSEYJERSEYN26</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#25</t>
+          <t>Team Jersey - JERSEY_N#26</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0xC38 (type=combo, length=8, startBit=0)</t>
+          <t>0xC40 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0xC38 (type=combo, length=8, startBit=0)</t>
+          <t>0xC40 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0xC38 (type=combo, length=8, startBit=0)</t>
+          <t>0xC40 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2384,7 +2380,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#26</t>
+          <t>Team Jersey - JERSEY_N#27</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2394,27 +2390,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN26</t>
+          <t>TEAMJERSEYJERSEYN27</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#26</t>
+          <t>Team Jersey - JERSEY_N#27</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0xC40 (type=combo, length=8, startBit=0)</t>
+          <t>0xC48 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0xC40 (type=combo, length=8, startBit=0)</t>
+          <t>0xC48 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0xC40 (type=combo, length=8, startBit=0)</t>
+          <t>0xC48 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -2423,7 +2419,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#27</t>
+          <t>Team Jersey - JERSEY_N#28</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2433,27 +2429,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN27</t>
+          <t>TEAMJERSEYJERSEYN28</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#27</t>
+          <t>Team Jersey - JERSEY_N#28</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0xC48 (type=combo, length=8, startBit=0)</t>
+          <t>0xC50 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0xC48 (type=combo, length=8, startBit=0)</t>
+          <t>0xC50 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0xC48 (type=combo, length=8, startBit=0)</t>
+          <t>0xC50 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -2462,7 +2458,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#28</t>
+          <t>Team Jersey - JERSEY_N#29</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2472,27 +2468,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN28</t>
+          <t>TEAMJERSEYJERSEYN29</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#28</t>
+          <t>Team Jersey - JERSEY_N#29</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0xC50 (type=combo, length=8, startBit=0)</t>
+          <t>0xC58 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0xC50 (type=combo, length=8, startBit=0)</t>
+          <t>0xC58 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0xC50 (type=combo, length=8, startBit=0)</t>
+          <t>0xC58 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2501,7 +2497,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#29</t>
+          <t>Team Jersey - JERSEY_N#3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2511,27 +2507,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN29</t>
+          <t>TEAMJERSEYJERSEYN3POINT</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#29</t>
+          <t>Team Jersey - JERSEY_N#3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0xC58 (type=combo, length=8, startBit=0)</t>
+          <t>0xB88 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0xC58 (type=combo, length=8, startBit=0)</t>
+          <t>0xB88 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0xC58 (type=combo, length=8, startBit=0)</t>
+          <t>0xB88 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2540,7 +2536,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#3</t>
+          <t>Team Jersey - JERSEY_N#30</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2550,27 +2546,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN3POINT</t>
+          <t>TEAMJERSEYJERSEYN30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#3</t>
+          <t>Team Jersey - JERSEY_N#30</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0xB88 (type=combo, length=8, startBit=0)</t>
+          <t>0xC60 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0xB88 (type=combo, length=8, startBit=0)</t>
+          <t>0xC60 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0xB88 (type=combo, length=8, startBit=0)</t>
+          <t>0xC60 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2579,7 +2575,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#30</t>
+          <t>Team Jersey - JERSEY_N#4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2589,27 +2585,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN30</t>
+          <t>TEAMJERSEYJERSEYN4</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#30</t>
+          <t>Team Jersey - JERSEY_N#4</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0xC60 (type=combo, length=8, startBit=0)</t>
+          <t>0xB90 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0xC60 (type=combo, length=8, startBit=0)</t>
+          <t>0xB90 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0xC60 (type=combo, length=8, startBit=0)</t>
+          <t>0xB90 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2618,7 +2614,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#4</t>
+          <t>Team Jersey - JERSEY_N#5</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2628,27 +2624,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN4</t>
+          <t>TEAMJERSEYJERSEYN5</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#4</t>
+          <t>Team Jersey - JERSEY_N#5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0xB90 (type=combo, length=8, startBit=0)</t>
+          <t>0xB98 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0xB90 (type=combo, length=8, startBit=0)</t>
+          <t>0xB98 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0xB90 (type=combo, length=8, startBit=0)</t>
+          <t>0xB98 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2657,7 +2653,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#5</t>
+          <t>Team Jersey - JERSEY_N#6</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2667,27 +2663,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN5</t>
+          <t>TEAMJERSEYJERSEYN6</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#5</t>
+          <t>Team Jersey - JERSEY_N#6</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0xB98 (type=combo, length=8, startBit=0)</t>
+          <t>0xBA0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0xB98 (type=combo, length=8, startBit=0)</t>
+          <t>0xBA0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0xB98 (type=combo, length=8, startBit=0)</t>
+          <t>0xBA0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2696,7 +2692,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#6</t>
+          <t>Team Jersey - JERSEY_N#7</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2706,27 +2702,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN6</t>
+          <t>TEAMJERSEYJERSEYN7</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#6</t>
+          <t>Team Jersey - JERSEY_N#7</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0xBA0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBA8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0xBA0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBA8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0xBA0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBA8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2735,7 +2731,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#7</t>
+          <t>Team Jersey - JERSEY_N#8</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2745,27 +2741,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN7</t>
+          <t>TEAMJERSEYJERSEYN8</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#7</t>
+          <t>Team Jersey - JERSEY_N#8</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0xBA8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBB0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0xBA8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBB0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0xBA8 (type=combo, length=8, startBit=0)</t>
+          <t>0xBB0 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2774,7 +2770,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#8</t>
+          <t>Team Jersey - JERSEY_N#9</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2784,27 +2780,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN8</t>
+          <t>TEAMJERSEYJERSEYN9</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#8</t>
+          <t>Team Jersey - JERSEY_N#9</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0xBB0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBB8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0xBB0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBB8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0xBB0 (type=combo, length=8, startBit=0)</t>
+          <t>0xBB8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2813,7 +2809,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#9</t>
+          <t>Team Jersey - PRACTICE_AWAY</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2823,27 +2819,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TEAMJERSEYJERSEYN9</t>
+          <t>TEAMJERSEYPRACTICEAWAY</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Team Jersey - JERSEY_N#9</t>
+          <t>Team Jersey - PRACTICE_AWAY</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0xBB8 (type=combo, length=8, startBit=0)</t>
+          <t>0xC70 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0xBB8 (type=combo, length=8, startBit=0)</t>
+          <t>0xC70 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0xBB8 (type=combo, length=8, startBit=0)</t>
+          <t>0xC70 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -2852,7 +2848,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Team Jersey - PRACTICE_AWAY</t>
+          <t>Team Jersey - PRACTICE_HOME</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2862,27 +2858,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TEAMJERSEYPRACTICEAWAY</t>
+          <t>TEAMJERSEYPRACTICEHOME</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Team Jersey - PRACTICE_AWAY</t>
+          <t>Team Jersey - PRACTICE_HOME</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0xC70 (type=combo, length=8, startBit=0)</t>
+          <t>0xC68 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0xC70 (type=combo, length=8, startBit=0)</t>
+          <t>0xC68 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0xC70 (type=combo, length=8, startBit=0)</t>
+          <t>0xC68 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -2891,7 +2887,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Team Jersey - PRACTICE_HOME</t>
+          <t>Team Stats - CHAMPIONSHIPS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2901,27 +2897,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TEAMJERSEYPRACTICEHOME</t>
+          <t>TEAMSTATSCHAMPIONSHIPS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Team Jersey - PRACTICE_HOME</t>
+          <t>Team Stats - CHAMPIONSHIPS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0xC68 (type=combo, length=8, startBit=0)</t>
+          <t>0xCB3 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0xC68 (type=combo, length=8, startBit=0)</t>
+          <t>0xCB3 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0xC68 (type=combo, length=8, startBit=0)</t>
+          <t>0xCB3 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -2930,7 +2926,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Team Stats - CHAMPIONSHIPS</t>
+          <t>Team Stats - CONFERENCE_CHAMPIONSHIPS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2940,27 +2936,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>TEAMSTATSCHAMPIONSHIPS</t>
+          <t>TEAMSTATSCONFERENCECHAMPIONSHIPS</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Team Stats - CHAMPIONSHIPS</t>
+          <t>Team Stats - CONFERENCE_CHAMPIONSHIPS</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0xCB3 (type=number, length=8, startBit=0)</t>
+          <t>0xCAF (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0xCB3 (type=number, length=8, startBit=0)</t>
+          <t>0xCAF (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0xCB3 (type=number, length=8, startBit=0)</t>
+          <t>0xCAF (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -2969,7 +2965,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Team Stats - CONFERENCE_CHAMPIONSHIPS</t>
+          <t>Team Stats - CURRENT_YEAR_STATS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2979,27 +2975,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TEAMSTATSCONFERENCECHAMPIONSHIPS</t>
+          <t>TEAMSTATSCURRENTYEARSTATS</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Team Stats - CONFERENCE_CHAMPIONSHIPS</t>
+          <t>Team Stats - CURRENT_YEAR_STATS</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0xCAF (type=number, length=8, startBit=0)</t>
+          <t>0xE80 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0xCAF (type=number, length=8, startBit=0)</t>
+          <t>0xE80 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0xCAF (type=number, length=8, startBit=0)</t>
+          <t>0xE80 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -3008,7 +3004,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Team Stats - CURRENT_YEAR_STATS</t>
+          <t>Team Stats - DIVISION_TITLES</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3018,27 +3014,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TEAMSTATSCURRENTYEARSTATS</t>
+          <t>TEAMSTATSDIVISIONTITLES</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Team Stats - CURRENT_YEAR_STATS</t>
+          <t>Team Stats - DIVISION_TITLES</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0xE80 (type=combo, length=2, startBit=0)</t>
+          <t>0xCB2 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0xE80 (type=combo, length=2, startBit=0)</t>
+          <t>0xCB2 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0xE80 (type=combo, length=2, startBit=0)</t>
+          <t>0xCB2 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -3047,7 +3043,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Team Stats - DIVISION_TITLES</t>
+          <t>Team Stats - FIRST_PICKS_COUNT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3057,27 +3053,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>TEAMSTATSDIVISIONTITLES</t>
+          <t>TEAMSTATSFIRSTPICKSCOUNT</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Team Stats - DIVISION_TITLES</t>
+          <t>Team Stats - FIRST_PICKS_COUNT</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0xCB2 (type=number, length=8, startBit=0)</t>
+          <t>0x1032 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0xCB2 (type=number, length=8, startBit=0)</t>
+          <t>0x1032 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0xCB2 (type=number, length=8, startBit=0)</t>
+          <t>0x1032 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -3086,7 +3082,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Team Stats - FIRST_PICKS_COUNT</t>
+          <t>Team Stats - HISTORIC_LOSSES</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3096,27 +3092,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>TEAMSTATSFIRSTPICKSCOUNT</t>
+          <t>TEAMSTATSHISTORICLOSSES</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Team Stats - FIRST_PICKS_COUNT</t>
+          <t>Team Stats - HISTORIC_LOSSES</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0x1032 (type=number, length=16, startBit=0)</t>
+          <t>0xED2 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0x1032 (type=number, length=16, startBit=0)</t>
+          <t>0xED2 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0x1032 (type=number, length=16, startBit=0)</t>
+          <t>0xED2 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -3125,7 +3121,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Team Stats - HISTORIC_LOSSES</t>
+          <t>Team Stats - HISTORIC_WIN</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3135,27 +3131,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TEAMSTATSHISTORICLOSSES</t>
+          <t>TEAMSTATSHISTORICWIN</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Team Stats - HISTORIC_LOSSES</t>
+          <t>Team Stats - HISTORIC_WIN</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0xED2 (type=number, length=16, startBit=0)</t>
+          <t>0xED0 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0xED2 (type=number, length=16, startBit=0)</t>
+          <t>0xED0 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0xED2 (type=number, length=16, startBit=0)</t>
+          <t>0xED0 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -3164,7 +3160,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Team Stats - HISTORIC_WIN</t>
+          <t>Team Stats - LAST_LOTTERY_YEAR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3174,27 +3170,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TEAMSTATSHISTORICWIN</t>
+          <t>TEAMSTATSLASTLOTTERYYEAR</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Team Stats - HISTORIC_WIN</t>
+          <t>Team Stats - LAST_LOTTERY_YEAR</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0xED0 (type=number, length=16, startBit=0)</t>
+          <t>0x102E (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0xED0 (type=number, length=16, startBit=0)</t>
+          <t>0x102E (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0xED0 (type=number, length=16, startBit=0)</t>
+          <t>0x102E (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -3203,7 +3199,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_LOTTERY_YEAR</t>
+          <t>Team Stats - LAST_NON-LOTTERY_YEAR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3213,27 +3209,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TEAMSTATSLASTLOTTERYYEAR</t>
+          <t>TEAMSTATSLASTNONLOTTERYYEAR</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_LOTTERY_YEAR</t>
+          <t>Team Stats - LAST_NON-LOTTERY_YEAR</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0x102E (type=number, length=16, startBit=0)</t>
+          <t>0x1030 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0x102E (type=number, length=16, startBit=0)</t>
+          <t>0x1030 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0x102E (type=number, length=16, startBit=0)</t>
+          <t>0x1030 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -3242,7 +3238,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_NON-LOTTERY_YEAR</t>
+          <t>Team Stats - LAST_PLAYOFF_YEAR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3252,27 +3248,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TEAMSTATSLASTNONLOTTERYYEAR</t>
+          <t>TEAMSTATSLASTPLAYOFFYEAR</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_NON-LOTTERY_YEAR</t>
+          <t>Team Stats - LAST_PLAYOFF_YEAR</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0x1030 (type=number, length=16, startBit=0)</t>
+          <t>0xCAC (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0x1030 (type=number, length=16, startBit=0)</t>
+          <t>0xCAC (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0x1030 (type=number, length=16, startBit=0)</t>
+          <t>0xCAC (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -3281,7 +3277,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_PLAYOFF_YEAR</t>
+          <t>Team Stats - LAST_YEAR_PLAYOFFS_OPPONENT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3291,27 +3287,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TEAMSTATSLASTPLAYOFFYEAR</t>
+          <t>TEAMSTATSLASTYEARPLAYOFFSOPPONENT</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_PLAYOFF_YEAR</t>
+          <t>Team Stats - LAST_YEAR_PLAYOFFS_OPPONENT</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0xCAC (type=number, length=16, startBit=0)</t>
+          <t>0xED8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0xCAC (type=number, length=16, startBit=0)</t>
+          <t>0xED8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0xCAC (type=number, length=16, startBit=0)</t>
+          <t>0xED8 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -3320,7 +3316,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_YEAR_PLAYOFFS_OPPONENT</t>
+          <t>Team Stats - LAST_YEAR_PLAYOFFS_ROUND</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3330,27 +3326,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TEAMSTATSLASTYEARPLAYOFFSOPPONENT</t>
+          <t>TEAMSTATSLASTYEARPLAYOFFSROUND</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_YEAR_PLAYOFFS_OPPONENT</t>
+          <t>Team Stats - LAST_YEAR_PLAYOFFS_ROUND</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0xED8 (type=combo, length=8, startBit=0)</t>
+          <t>0xEC1 (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0xED8 (type=combo, length=8, startBit=0)</t>
+          <t>0xEC1 (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0xED8 (type=combo, length=8, startBit=0)</t>
+          <t>0xEC1 (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3359,7 +3355,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_YEAR_PLAYOFFS_ROUND</t>
+          <t>Team Stats - LAST_YEAR_PLAYOFFS_SERIES_GAMES</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3369,27 +3365,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TEAMSTATSLASTYEARPLAYOFFSROUND</t>
+          <t>TEAMSTATSLASTYEARPLAYOFFSSERIESGAMES</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_YEAR_PLAYOFFS_ROUND</t>
+          <t>Team Stats - LAST_YEAR_PLAYOFFS_SERIES_GAMES</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0xEC1 (type=combo, length=3, startBit=0)</t>
+          <t>0xCB7 (type=bit, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0xEC1 (type=combo, length=3, startBit=0)</t>
+          <t>0xCB7 (type=bit, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0xEC1 (type=combo, length=3, startBit=0)</t>
+          <t>0xCB7 (type=bit, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -3398,7 +3394,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_YEAR_PLAYOFFS_SERIES_GAMES</t>
+          <t>Team Stats - LOTTERY_PICKS_COUNT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3408,27 +3404,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>TEAMSTATSLASTYEARPLAYOFFSSERIESGAMES</t>
+          <t>TEAMSTATSLOTTERYPICKSCOUNT</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Team Stats - LAST_YEAR_PLAYOFFS_SERIES_GAMES</t>
+          <t>Team Stats - LOTTERY_PICKS_COUNT</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0xCB7 (type=bit, length=3, startBit=0)</t>
+          <t>0x1034 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0xCB7 (type=bit, length=3, startBit=0)</t>
+          <t>0x1034 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0xCB7 (type=bit, length=3, startBit=0)</t>
+          <t>0x1034 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -3437,7 +3433,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Team Stats - LOTTERY_PICKS_COUNT</t>
+          <t>Team Stats - PLAYOFF_APPEARANCES</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3447,27 +3443,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TEAMSTATSLOTTERYPICKSCOUNT</t>
+          <t>TEAMSTATSPLAYOFFAPPEARANCES</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Team Stats - LOTTERY_PICKS_COUNT</t>
+          <t>Team Stats - PLAYOFF_APPEARANCES</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0x1034 (type=number, length=16, startBit=0)</t>
+          <t>0xCAE (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0x1034 (type=number, length=16, startBit=0)</t>
+          <t>0xCAE (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0x1034 (type=number, length=16, startBit=0)</t>
+          <t>0xCAE (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -3476,7 +3472,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Team Stats - PLAYOFF_APPEARANCES</t>
+          <t>Team Stats - STATS_ID#1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3486,27 +3482,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>TEAMSTATSPLAYOFFAPPEARANCES</t>
+          <t>TEAMSTATSSTATSID1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Team Stats - PLAYOFF_APPEARANCES</t>
+          <t>Team Stats - STATS_ID#1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0xCAE (type=number, length=8, startBit=0)</t>
+          <t>0xE82 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0xCAE (type=number, length=8, startBit=0)</t>
+          <t>0xE82 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0xCAE (type=number, length=8, startBit=0)</t>
+          <t>0xE82 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -3515,7 +3511,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#1</t>
+          <t>Team Stats - STATS_ID#10</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3525,27 +3521,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID1</t>
+          <t>TEAMSTATSSTATSID10</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#1</t>
+          <t>Team Stats - STATS_ID#10</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0xE82 (type=combo, length=2, startBit=0)</t>
+          <t>0xE94 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0xE82 (type=combo, length=2, startBit=0)</t>
+          <t>0xE94 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0xE82 (type=combo, length=2, startBit=0)</t>
+          <t>0xE94 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3554,7 +3550,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#10</t>
+          <t>Team Stats - STATS_ID#11</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3564,27 +3560,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID10</t>
+          <t>TEAMSTATSSTATSID11</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#10</t>
+          <t>Team Stats - STATS_ID#11</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0xE94 (type=combo, length=2, startBit=0)</t>
+          <t>0xE96 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0xE94 (type=combo, length=2, startBit=0)</t>
+          <t>0xE96 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0xE94 (type=combo, length=2, startBit=0)</t>
+          <t>0xE96 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3593,7 +3589,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#11</t>
+          <t>Team Stats - STATS_ID#12</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3603,27 +3599,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID11</t>
+          <t>TEAMSTATSSTATSID12</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#11</t>
+          <t>Team Stats - STATS_ID#12</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0xE96 (type=combo, length=2, startBit=0)</t>
+          <t>0xE98 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0xE96 (type=combo, length=2, startBit=0)</t>
+          <t>0xE98 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0xE96 (type=combo, length=2, startBit=0)</t>
+          <t>0xE98 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -3632,7 +3628,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#12</t>
+          <t>Team Stats - STATS_ID#13</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3642,27 +3638,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID12</t>
+          <t>TEAMSTATSSTATSID13</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#12</t>
+          <t>Team Stats - STATS_ID#13</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0xE98 (type=combo, length=2, startBit=0)</t>
+          <t>0xE9A (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0xE98 (type=combo, length=2, startBit=0)</t>
+          <t>0xE9A (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0xE98 (type=combo, length=2, startBit=0)</t>
+          <t>0xE9A (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -3671,7 +3667,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#13</t>
+          <t>Team Stats - STATS_ID#14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3681,27 +3677,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID13</t>
+          <t>TEAMSTATSSTATSID14</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#13</t>
+          <t>Team Stats - STATS_ID#14</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0xE9A (type=combo, length=2, startBit=0)</t>
+          <t>0xE9C (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0xE9A (type=combo, length=2, startBit=0)</t>
+          <t>0xE9C (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0xE9A (type=combo, length=2, startBit=0)</t>
+          <t>0xE9C (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -3710,7 +3706,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#14</t>
+          <t>Team Stats - STATS_ID#15</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3720,27 +3716,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID14</t>
+          <t>TEAMSTATSSTATSID15</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#14</t>
+          <t>Team Stats - STATS_ID#15</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0xE9C (type=combo, length=2, startBit=0)</t>
+          <t>0xE9E (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0xE9C (type=combo, length=2, startBit=0)</t>
+          <t>0xE9E (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0xE9C (type=combo, length=2, startBit=0)</t>
+          <t>0xE9E (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -3749,7 +3745,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#15</t>
+          <t>Team Stats - STATS_ID#16</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3759,27 +3755,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID15</t>
+          <t>TEAMSTATSSTATSID16</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#15</t>
+          <t>Team Stats - STATS_ID#16</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0xE9E (type=combo, length=2, startBit=0)</t>
+          <t>0xEA0 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0xE9E (type=combo, length=2, startBit=0)</t>
+          <t>0xEA0 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0xE9E (type=combo, length=2, startBit=0)</t>
+          <t>0xEA0 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -3788,7 +3784,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#16</t>
+          <t>Team Stats - STATS_ID#17</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3798,27 +3794,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID16</t>
+          <t>TEAMSTATSSTATSID17</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#16</t>
+          <t>Team Stats - STATS_ID#17</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0xEA0 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA2 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0xEA0 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA2 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0xEA0 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA2 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3827,7 +3823,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#17</t>
+          <t>Team Stats - STATS_ID#18</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3837,27 +3833,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID17</t>
+          <t>TEAMSTATSSTATSID18</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#17</t>
+          <t>Team Stats - STATS_ID#18</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0xEA2 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA4 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0xEA2 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA4 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0xEA2 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA4 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -3866,7 +3862,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#18</t>
+          <t>Team Stats - STATS_ID#19</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3876,27 +3872,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID18</t>
+          <t>TEAMSTATSSTATSID19</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#18</t>
+          <t>Team Stats - STATS_ID#19</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0xEA4 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA6 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0xEA4 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA6 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0xEA4 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA6 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3905,7 +3901,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#19</t>
+          <t>Team Stats - STATS_ID#2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3915,27 +3911,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID19</t>
+          <t>TEAMSTATSSTATSID2</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#19</t>
+          <t>Team Stats - STATS_ID#2</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0xEA6 (type=combo, length=2, startBit=0)</t>
+          <t>0xE84 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0xEA6 (type=combo, length=2, startBit=0)</t>
+          <t>0xE84 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0xEA6 (type=combo, length=2, startBit=0)</t>
+          <t>0xE84 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -3944,7 +3940,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#2</t>
+          <t>Team Stats - STATS_ID#20</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3954,27 +3950,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID2</t>
+          <t>TEAMSTATSSTATSID20</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#2</t>
+          <t>Team Stats - STATS_ID#20</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0xE84 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA8 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0xE84 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA8 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0xE84 (type=combo, length=2, startBit=0)</t>
+          <t>0xEA8 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -3983,7 +3979,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#20</t>
+          <t>Team Stats - STATS_ID#21</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3993,27 +3989,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID20</t>
+          <t>TEAMSTATSSTATSID21</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#20</t>
+          <t>Team Stats - STATS_ID#21</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0xEA8 (type=combo, length=2, startBit=0)</t>
+          <t>0xEAA (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0xEA8 (type=combo, length=2, startBit=0)</t>
+          <t>0xEAA (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0xEA8 (type=combo, length=2, startBit=0)</t>
+          <t>0xEAA (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -4022,7 +4018,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#21</t>
+          <t>Team Stats - STATS_ID#22</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4032,27 +4028,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID21</t>
+          <t>TEAMSTATSSTATSID22</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#21</t>
+          <t>Team Stats - STATS_ID#22</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0xEAA (type=combo, length=2, startBit=0)</t>
+          <t>0xEAC (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0xEAA (type=combo, length=2, startBit=0)</t>
+          <t>0xEAC (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0xEAA (type=combo, length=2, startBit=0)</t>
+          <t>0xEAC (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -4061,7 +4057,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#22</t>
+          <t>Team Stats - STATS_ID#23</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4071,27 +4067,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID22</t>
+          <t>TEAMSTATSSTATSID23</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#22</t>
+          <t>Team Stats - STATS_ID#23</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0xEAC (type=combo, length=2, startBit=0)</t>
+          <t>0xEAE (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0xEAC (type=combo, length=2, startBit=0)</t>
+          <t>0xEAE (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0xEAC (type=combo, length=2, startBit=0)</t>
+          <t>0xEAE (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -4100,7 +4096,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#23</t>
+          <t>Team Stats - STATS_ID#3</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4110,27 +4106,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID23</t>
+          <t>TEAMSTATSSTATSID3POINT</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#23</t>
+          <t>Team Stats - STATS_ID#3</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0xEAE (type=combo, length=2, startBit=0)</t>
+          <t>0xE86 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0xEAE (type=combo, length=2, startBit=0)</t>
+          <t>0xE86 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0xEAE (type=combo, length=2, startBit=0)</t>
+          <t>0xE86 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -4139,7 +4135,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#3</t>
+          <t>Team Stats - STATS_ID#4</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4149,27 +4145,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID3POINT</t>
+          <t>TEAMSTATSSTATSID4</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#3</t>
+          <t>Team Stats - STATS_ID#4</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0xE86 (type=combo, length=2, startBit=0)</t>
+          <t>0xE88 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0xE86 (type=combo, length=2, startBit=0)</t>
+          <t>0xE88 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0xE86 (type=combo, length=2, startBit=0)</t>
+          <t>0xE88 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -4178,7 +4174,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#4</t>
+          <t>Team Stats - STATS_ID#5</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4188,27 +4184,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID4</t>
+          <t>TEAMSTATSSTATSID5</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#4</t>
+          <t>Team Stats - STATS_ID#5</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0xE88 (type=combo, length=2, startBit=0)</t>
+          <t>0xE8A (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0xE88 (type=combo, length=2, startBit=0)</t>
+          <t>0xE8A (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0xE88 (type=combo, length=2, startBit=0)</t>
+          <t>0xE8A (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -4217,7 +4213,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#5</t>
+          <t>Team Stats - STATS_ID#6</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4227,27 +4223,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID5</t>
+          <t>TEAMSTATSSTATSID6</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#5</t>
+          <t>Team Stats - STATS_ID#6</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0xE8A (type=combo, length=2, startBit=0)</t>
+          <t>0xE8C (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0xE8A (type=combo, length=2, startBit=0)</t>
+          <t>0xE8C (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0xE8A (type=combo, length=2, startBit=0)</t>
+          <t>0xE8C (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -4256,7 +4252,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#6</t>
+          <t>Team Stats - STATS_ID#7</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4266,27 +4262,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID6</t>
+          <t>TEAMSTATSSTATSID7</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#6</t>
+          <t>Team Stats - STATS_ID#7</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0xE8C (type=combo, length=2, startBit=0)</t>
+          <t>0xE8E (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0xE8C (type=combo, length=2, startBit=0)</t>
+          <t>0xE8E (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0xE8C (type=combo, length=2, startBit=0)</t>
+          <t>0xE8E (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -4295,7 +4291,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#7</t>
+          <t>Team Stats - STATS_ID#8</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4305,27 +4301,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID7</t>
+          <t>TEAMSTATSSTATSID8</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#7</t>
+          <t>Team Stats - STATS_ID#8</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0xE8E (type=combo, length=2, startBit=0)</t>
+          <t>0xE90 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0xE8E (type=combo, length=2, startBit=0)</t>
+          <t>0xE90 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0xE8E (type=combo, length=2, startBit=0)</t>
+          <t>0xE90 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -4334,7 +4330,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#8</t>
+          <t>Team Stats - STATS_ID#9</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4344,27 +4340,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID8</t>
+          <t>TEAMSTATSSTATSID9</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#8</t>
+          <t>Team Stats - STATS_ID#9</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0xE90 (type=combo, length=2, startBit=0)</t>
+          <t>0xE92 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0xE90 (type=combo, length=2, startBit=0)</t>
+          <t>0xE92 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0xE90 (type=combo, length=2, startBit=0)</t>
+          <t>0xE92 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -4373,7 +4369,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#9</t>
+          <t>Team Stats Edit - 2NDPTS</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4383,27 +4379,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TEAMSTATSSTATSID9</t>
+          <t>TEAMSTATSEDIT2NDPTS</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Team Stats - STATS_ID#9</t>
+          <t>Team Stats Edit - 2NDPTS</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0xE92 (type=combo, length=2, startBit=0)</t>
+          <t>0x28 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0xE92 (type=combo, length=2, startBit=0)</t>
+          <t>0x28 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0xE92 (type=combo, length=2, startBit=0)</t>
+          <t>0x28 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -4412,7 +4408,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Team Stats Edit - 2NDPTS</t>
+          <t>Team Stats Edit - 3PT_ATTEMPTED</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4422,27 +4418,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDIT2NDPTS</t>
+          <t>TEAMSTATSEDIT3POINTATTEMPTED</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Team Stats Edit - 2NDPTS</t>
+          <t>Team Stats Edit - 3PT_ATTEMPTED</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0x28 (type=number, length=16, startBit=0)</t>
+          <t>0x12 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0x28 (type=number, length=16, startBit=0)</t>
+          <t>0x12 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0x28 (type=number, length=16, startBit=0)</t>
+          <t>0x12 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -4451,7 +4447,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Team Stats Edit - 3PT_ATTEMPTED</t>
+          <t>Team Stats Edit - 3PT_MADE</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4461,27 +4457,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDIT3POINTATTEMPTED</t>
+          <t>TEAMSTATSEDIT3POINTMADE</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Team Stats Edit - 3PT_ATTEMPTED</t>
+          <t>Team Stats Edit - 3PT_MADE</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0x12 (type=number, length=16, startBit=0)</t>
+          <t>0x10 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0x12 (type=number, length=16, startBit=0)</t>
+          <t>0x10 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0x12 (type=number, length=16, startBit=0)</t>
+          <t>0x10 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4490,7 +4486,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Team Stats Edit - 3PT_MADE</t>
+          <t>Team Stats Edit - ASSISTS</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4500,27 +4496,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDIT3POINTMADE</t>
+          <t>TEAMSTATSEDITASSISTS</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Team Stats Edit - 3PT_MADE</t>
+          <t>Team Stats Edit - ASSISTS</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0x10 (type=number, length=16, startBit=0)</t>
+          <t>0x22 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0x10 (type=number, length=16, startBit=0)</t>
+          <t>0x22 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0x10 (type=number, length=16, startBit=0)</t>
+          <t>0x22 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4529,7 +4525,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Team Stats Edit - ASSISTS</t>
+          <t>Team Stats Edit - ATTEMPTED</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4539,27 +4535,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITASSISTS</t>
+          <t>TEAMSTATSEDITATTEMPTED</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Team Stats Edit - ASSISTS</t>
+          <t>Team Stats Edit - ATTEMPTED</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0x22 (type=number, length=16, startBit=0)</t>
+          <t>0xE (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0x22 (type=number, length=16, startBit=0)</t>
+          <t>0xE (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0x22 (type=number, length=16, startBit=0)</t>
+          <t>0xE (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4568,7 +4564,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Team Stats Edit - ATTEMPTED</t>
+          <t>Team Stats Edit - BENCH</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4578,27 +4574,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITATTEMPTED</t>
+          <t>TEAMSTATSEDITBENCH</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Team Stats Edit - ATTEMPTED</t>
+          <t>Team Stats Edit - BENCH</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0xE (type=number, length=16, startBit=0)</t>
+          <t>0x36 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0xE (type=number, length=16, startBit=0)</t>
+          <t>0x36 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0xE (type=number, length=16, startBit=0)</t>
+          <t>0x36 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -4607,7 +4603,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Team Stats Edit - BENCH</t>
+          <t>Team Stats Edit - BLOCKS</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4617,27 +4613,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITBENCH</t>
+          <t>TEAMSTATSEDITBLOCKS</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Team Stats Edit - BENCH</t>
+          <t>Team Stats Edit - BLOCKS</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0x36 (type=number, length=16, startBit=0)</t>
+          <t>0x20 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0x36 (type=number, length=16, startBit=0)</t>
+          <t>0x20 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0x36 (type=number, length=16, startBit=0)</t>
+          <t>0x20 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -4646,7 +4642,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Team Stats Edit - BLOCKS</t>
+          <t>Team Stats Edit - DEFENSIVE_REBOUNDS</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4656,27 +4652,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITBLOCKS</t>
+          <t>TEAMSTATSEDITDEFENSEREBOUNDS</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Team Stats Edit - BLOCKS</t>
+          <t>Team Stats Edit - DEFENSIVE_REBOUNDS</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0x20 (type=number, length=16, startBit=0)</t>
+          <t>0x1A (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0x20 (type=number, length=16, startBit=0)</t>
+          <t>0x1A (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0x20 (type=number, length=16, startBit=0)</t>
+          <t>0x1A (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -4685,7 +4681,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Team Stats Edit - DEFENSIVE_REBOUNDS</t>
+          <t>Team Stats Edit - FOUL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4695,27 +4691,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITDEFENSEREBOUNDS</t>
+          <t>TEAMSTATSEDITFOUL</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Team Stats Edit - DEFENSIVE_REBOUNDS</t>
+          <t>Team Stats Edit - FOUL</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0x1A (type=number, length=16, startBit=0)</t>
+          <t>0x24 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0x1A (type=number, length=16, startBit=0)</t>
+          <t>0x24 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0x1A (type=number, length=16, startBit=0)</t>
+          <t>0x24 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -4724,7 +4720,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Team Stats Edit - FOUL</t>
+          <t>Team Stats Edit - FREE_THROWS_ATTEMPTED</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4734,27 +4730,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITFOUL</t>
+          <t>TEAMSTATSEDITFREETHROWATTEMPTED</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Team Stats Edit - FOUL</t>
+          <t>Team Stats Edit - FREE_THROWS_ATTEMPTED</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0x24 (type=number, length=16, startBit=0)</t>
+          <t>0x16 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0x24 (type=number, length=16, startBit=0)</t>
+          <t>0x16 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0x24 (type=number, length=16, startBit=0)</t>
+          <t>0x16 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -4763,7 +4759,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Team Stats Edit - FREE_THROWS_ATTEMPTED</t>
+          <t>Team Stats Edit - FREE_THROWS_MADE</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4773,27 +4769,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITFREETHROWATTEMPTED</t>
+          <t>TEAMSTATSEDITFREETHROWMADE</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Team Stats Edit - FREE_THROWS_ATTEMPTED</t>
+          <t>Team Stats Edit - FREE_THROWS_MADE</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0x16 (type=number, length=16, startBit=0)</t>
+          <t>0x14 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0x16 (type=number, length=16, startBit=0)</t>
+          <t>0x14 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>0x16 (type=number, length=16, startBit=0)</t>
+          <t>0x14 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -4802,7 +4798,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Team Stats Edit - FREE_THROWS_MADE</t>
+          <t>Team Stats Edit - L</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4812,27 +4808,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITFREETHROWMADE</t>
+          <t>TEAMSTATSEDITL</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Team Stats Edit - FREE_THROWS_MADE</t>
+          <t>Team Stats Edit - L</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0x14 (type=number, length=16, startBit=0)</t>
+          <t>0x3C (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0x14 (type=number, length=16, startBit=0)</t>
+          <t>0x3C (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0x14 (type=number, length=16, startBit=0)</t>
+          <t>0x3C (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -4841,7 +4837,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Team Stats Edit - L</t>
+          <t>Team Stats Edit - MADE</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4851,27 +4847,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITL</t>
+          <t>TEAMSTATSEDITMADE</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Team Stats Edit - L</t>
+          <t>Team Stats Edit - MADE</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0x3C (type=number, length=8, startBit=0)</t>
+          <t>0xC (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0x3C (type=number, length=8, startBit=0)</t>
+          <t>0xC (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0x3C (type=number, length=8, startBit=0)</t>
+          <t>0xC (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -4880,7 +4876,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Team Stats Edit - MADE</t>
+          <t>Team Stats Edit - O3PA</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4890,27 +4886,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITMADE</t>
+          <t>TEAMSTATSEDITO3PA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Team Stats Edit - MADE</t>
+          <t>Team Stats Edit - O3PA</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0xC (type=number, length=16, startBit=0)</t>
+          <t>0x32 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0xC (type=number, length=16, startBit=0)</t>
+          <t>0x32 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0xC (type=number, length=16, startBit=0)</t>
+          <t>0x32 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -4919,7 +4915,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Team Stats Edit - O3PA</t>
+          <t>Team Stats Edit - O3PM</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4929,27 +4925,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITO3PA</t>
+          <t>TEAMSTATSEDITO3PM</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Team Stats Edit - O3PA</t>
+          <t>Team Stats Edit - O3PM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0x32 (type=number, length=16, startBit=0)</t>
+          <t>0x30 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0x32 (type=number, length=16, startBit=0)</t>
+          <t>0x30 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0x32 (type=number, length=16, startBit=0)</t>
+          <t>0x30 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -4958,7 +4954,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Team Stats Edit - O3PM</t>
+          <t>Team Stats Edit - OFFENSIVE_REBOUNDS</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4968,27 +4964,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITO3PM</t>
+          <t>TEAMSTATSEDITOFFENSIVEREBOUNDS</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Team Stats Edit - O3PM</t>
+          <t>Team Stats Edit - OFFENSIVE_REBOUNDS</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0x30 (type=number, length=16, startBit=0)</t>
+          <t>0x18 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0x30 (type=number, length=16, startBit=0)</t>
+          <t>0x18 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0x30 (type=number, length=16, startBit=0)</t>
+          <t>0x18 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -4997,7 +4993,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Team Stats Edit - OFFENSIVE_REBOUNDS</t>
+          <t>Team Stats Edit - OFGA</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5007,27 +5003,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITOFFENSIVEREBOUNDS</t>
+          <t>TEAMSTATSEDITOFGA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Team Stats Edit - OFFENSIVE_REBOUNDS</t>
+          <t>Team Stats Edit - OFGA</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0x18 (type=number, length=16, startBit=0)</t>
+          <t>0x2E (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0x18 (type=number, length=16, startBit=0)</t>
+          <t>0x2E (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0x18 (type=number, length=16, startBit=0)</t>
+          <t>0x2E (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -5036,7 +5032,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Team Stats Edit - OFGA</t>
+          <t>Team Stats Edit - OFGM</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5046,27 +5042,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITOFGA</t>
+          <t>TEAMSTATSEDITOFGM</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Team Stats Edit - OFGA</t>
+          <t>Team Stats Edit - OFGM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0x2E (type=number, length=16, startBit=0)</t>
+          <t>0x2C (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0x2E (type=number, length=16, startBit=0)</t>
+          <t>0x2C (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0x2E (type=number, length=16, startBit=0)</t>
+          <t>0x2C (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -5075,7 +5071,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Team Stats Edit - OFGM</t>
+          <t>Team Stats Edit - PA</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5085,27 +5081,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITOFGM</t>
+          <t>TEAMSTATSEDITPA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Team Stats Edit - OFGM</t>
+          <t>Team Stats Edit - PA</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0x2C (type=number, length=16, startBit=0)</t>
+          <t>0xA (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0x2C (type=number, length=16, startBit=0)</t>
+          <t>0xA (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0x2C (type=number, length=16, startBit=0)</t>
+          <t>0xA (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -5114,7 +5110,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Team Stats Edit - PA</t>
+          <t>Team Stats Edit - PACE</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5124,27 +5120,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITPA</t>
+          <t>TEAMSTATSEDITPACE</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Team Stats Edit - PA</t>
+          <t>Team Stats Edit - PACE</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0xA (type=number, length=16, startBit=0)</t>
+          <t>0x6 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0xA (type=number, length=16, startBit=0)</t>
+          <t>0x6 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0xA (type=number, length=16, startBit=0)</t>
+          <t>0x6 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -5153,7 +5149,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Team Stats Edit - PACE</t>
+          <t>Team Stats Edit - PIP</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5163,27 +5159,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITPACE</t>
+          <t>TEAMSTATSEDITPIP</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Team Stats Edit - PACE</t>
+          <t>Team Stats Edit - PIP</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0x6 (type=number, length=16, startBit=0)</t>
+          <t>0x2A (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0x6 (type=number, length=16, startBit=0)</t>
+          <t>0x2A (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>0x6 (type=number, length=16, startBit=0)</t>
+          <t>0x2A (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -5192,7 +5188,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Team Stats Edit - PIP</t>
+          <t>Team Stats Edit - POINTS</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5202,27 +5198,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITPIP</t>
+          <t>TEAMSTATSEDITPOINTS</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Team Stats Edit - PIP</t>
+          <t>Team Stats Edit - POINTS</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0x2A (type=number, length=16, startBit=0)</t>
+          <t>0x8 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0x2A (type=number, length=16, startBit=0)</t>
+          <t>0x8 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>0x2A (type=number, length=16, startBit=0)</t>
+          <t>0x8 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -5231,7 +5227,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Team Stats Edit - POINTS</t>
+          <t>Team Stats Edit - POSS</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5241,27 +5237,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITPOINTS</t>
+          <t>TEAMSTATSEDITPOSS</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Team Stats Edit - POINTS</t>
+          <t>Team Stats Edit - POSS</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0x8 (type=number, length=16, startBit=0)</t>
+          <t>0x3A (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0x8 (type=number, length=16, startBit=0)</t>
+          <t>0x3A (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>0x8 (type=number, length=16, startBit=0)</t>
+          <t>0x3A (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -5270,7 +5266,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Team Stats Edit - POSS</t>
+          <t>Team Stats Edit - PTS-TO</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5280,27 +5276,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITPOSS</t>
+          <t>TEAMSTATSEDITPTSTO</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Team Stats Edit - POSS</t>
+          <t>Team Stats Edit - PTS-TO</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0x3A (type=number, length=16, startBit=0)</t>
+          <t>0x26 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0x3A (type=number, length=16, startBit=0)</t>
+          <t>0x26 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>0x3A (type=number, length=16, startBit=0)</t>
+          <t>0x26 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -5309,7 +5305,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Team Stats Edit - PTS-TO</t>
+          <t>Team Stats Edit - STEALS</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5319,27 +5315,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITPTSTO</t>
+          <t>TEAMSTATSEDITSTEALS</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Team Stats Edit - PTS-TO</t>
+          <t>Team Stats Edit - STEALS</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0x26 (type=number, length=16, startBit=0)</t>
+          <t>0x1C (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0x26 (type=number, length=16, startBit=0)</t>
+          <t>0x1C (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0x26 (type=number, length=16, startBit=0)</t>
+          <t>0x1C (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -5348,7 +5344,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Team Stats Edit - STEALS</t>
+          <t>Team Stats Edit - TURNOVER</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5358,27 +5354,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITSTEALS</t>
+          <t>TEAMSTATSEDITTURNOVER</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Team Stats Edit - STEALS</t>
+          <t>Team Stats Edit - TURNOVER</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0x1C (type=number, length=16, startBit=0)</t>
+          <t>0x1E (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0x1C (type=number, length=16, startBit=0)</t>
+          <t>0x1E (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0x1C (type=number, length=16, startBit=0)</t>
+          <t>0x1E (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -5387,7 +5383,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Team Stats Edit - TURNOVER</t>
+          <t>Team Stats Edit - W</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5397,27 +5393,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITTURNOVER</t>
+          <t>TEAMSTATSEDITW</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Team Stats Edit - TURNOVER</t>
+          <t>Team Stats Edit - W</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0x1E (type=number, length=16, startBit=0)</t>
+          <t>0x5 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0x1E (type=number, length=16, startBit=0)</t>
+          <t>0x5 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0x1E (type=number, length=16, startBit=0)</t>
+          <t>0x5 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -5426,7 +5422,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Team Stats Edit - W</t>
+          <t>Team Vitals - 2ND_LOGO</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5436,27 +5432,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>TEAMSTATSEDITW</t>
+          <t>TEAMVITALS2NDLOGO</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Team Stats Edit - W</t>
+          <t>Team Vitals - 2ND_LOGO</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0x5 (type=number, length=8, startBit=0)</t>
+          <t>0x1B4 (type=string, length=2048, startBit=0)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0x5 (type=number, length=8, startBit=0)</t>
+          <t>0x1B4 (type=string, length=2048, startBit=0)</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0x5 (type=number, length=8, startBit=0)</t>
+          <t>0x1B4 (type=string, length=2048, startBit=0)</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -5465,7 +5461,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Team Vitals - 2ND_LOGO</t>
+          <t>Team Vitals - 3D_LOGO</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5475,27 +5471,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>TEAMVITALS2NDLOGO</t>
+          <t>TEAMVITALS3DLOGO</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Team Vitals - 2ND_LOGO</t>
+          <t>Team Vitals - 3D_LOGO</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0x1B4 (type=string, length=2048, startBit=0)</t>
+          <t>0x42C (type=string, length=2048, startBit=0)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0x1B4 (type=string, length=2048, startBit=0)</t>
+          <t>0x42C (type=string, length=2048, startBit=0)</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>0x1B4 (type=string, length=2048, startBit=0)</t>
+          <t>0x42C (type=string, length=2048, startBit=0)</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -5504,7 +5500,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Team Vitals - 3D_LOGO</t>
+          <t>Team Vitals - 3D_MIRROR_LOGO</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5514,27 +5510,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>TEAMVITALS3DLOGO</t>
+          <t>TEAMVITALS3DMIRRORLOGO</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Team Vitals - 3D_LOGO</t>
+          <t>Team Vitals - 3D_MIRROR_LOGO</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0x42C (type=string, length=2048, startBit=0)</t>
+          <t>0x52C (type=string, length=2048, startBit=0)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0x42C (type=string, length=2048, startBit=0)</t>
+          <t>0x52C (type=string, length=2048, startBit=0)</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0x42C (type=string, length=2048, startBit=0)</t>
+          <t>0x52C (type=string, length=2048, startBit=0)</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -5543,7 +5539,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Team Vitals - 3D_MIRROR_LOGO</t>
+          <t>Team Vitals - ABB</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5553,27 +5549,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>TEAMVITALS3DMIRRORLOGO</t>
+          <t>TEAMVITALSABB</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Team Vitals - 3D_MIRROR_LOGO</t>
+          <t>Team Vitals - ABB</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0x52C (type=string, length=2048, startBit=0)</t>
+          <t>0x30A (type=string, length=272, startBit=0)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0x52C (type=string, length=2048, startBit=0)</t>
+          <t>0x30A (type=string, length=272, startBit=0)</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0x52C (type=string, length=2048, startBit=0)</t>
+          <t>0x30A (type=string, length=272, startBit=0)</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
@@ -5582,7 +5578,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Team Vitals - ABB</t>
+          <t>Team Vitals - ADVANCED_ROTATION</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5592,27 +5588,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>TEAMVITALSABB</t>
+          <t>TEAMVITALSADVANCEDROTATION</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Team Vitals - ABB</t>
+          <t>Team Vitals - ADVANCED_ROTATION</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0x30A (type=string, length=272, startBit=0)</t>
+          <t>0x1037 (type=combo, length=1, startBit=7)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0x30A (type=string, length=272, startBit=0)</t>
+          <t>0x1037 (type=combo, length=1, startBit=7)</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0x30A (type=string, length=272, startBit=0)</t>
+          <t>0x1037 (type=combo, length=1, startBit=7)</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
@@ -5621,7 +5617,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Team Vitals - ADVANCED_ROTATION</t>
+          <t>Team Vitals - ARENANAME</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5631,27 +5627,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TEAMVITALSADVANCEDROTATION</t>
+          <t>TEAMVITALSARENANAME</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Team Vitals - ADVANCED_ROTATION</t>
+          <t>Team Vitals - ARENANAME</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0x1037 (type=combo, length=1, startBit=7)</t>
+          <t>0x138 (type=string, length=480, startBit=0)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0x1037 (type=combo, length=1, startBit=7)</t>
+          <t>0x138 (type=string, length=480, startBit=0)</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0x1037 (type=combo, length=1, startBit=7)</t>
+          <t>0x138 (type=string, length=480, startBit=0)</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -5660,7 +5656,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Team Vitals - ARENANAME</t>
+          <t>Team Vitals - AUDIO_SIGNATURE_CRC32B</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5670,27 +5666,27 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>TEAMVITALSARENANAME</t>
+          <t>TEAMVITALSAUDIOSIGNATURECRC32B</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Team Vitals - ARENANAME</t>
+          <t>Team Vitals - AUDIO_SIGNATURE_CRC32B</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0x138 (type=string, length=480, startBit=0)</t>
+          <t>0xCA4 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0x138 (type=string, length=480, startBit=0)</t>
+          <t>0xCA4 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0x138 (type=string, length=480, startBit=0)</t>
+          <t>0xCA4 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -5699,7 +5695,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Team Vitals - AUDIO_SIGNATURE_CRC32B</t>
+          <t>Team Vitals - CHEMISTRY</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5709,27 +5705,27 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>TEAMVITALSAUDIOSIGNATURECRC32B</t>
+          <t>TEAMVITALSCHEMISTRY</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Team Vitals - AUDIO_SIGNATURE_CRC32B</t>
+          <t>Team Vitals - CHEMISTRY</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0xCA4 (type=number, length=32, startBit=0)</t>
+          <t>0xEC4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0xCA4 (type=number, length=32, startBit=0)</t>
+          <t>0xEC4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0xCA4 (type=number, length=32, startBit=0)</t>
+          <t>0xEC4 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -5738,7 +5734,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Team Vitals - CHEMISTRY</t>
+          <t>Team Vitals - CITY</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5748,27 +5744,27 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>TEAMVITALSCHEMISTRY</t>
+          <t>TEAMVITALSCITY</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Team Vitals - CHEMISTRY</t>
+          <t>Team Vitals - CITY</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0xEC4 (type=float, length=32, startBit=0)</t>
+          <t>0xC80 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0xEC4 (type=float, length=32, startBit=0)</t>
+          <t>0xC80 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0xEC4 (type=float, length=32, startBit=0)</t>
+          <t>0xC80 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -5777,7 +5773,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Team Vitals - CITY</t>
+          <t>Team Vitals - CITYNAME</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5787,30 +5783,34 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TEAMVITALSCITY</t>
+          <t>CITYNAME</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Team Vitals - CITY</t>
+          <t>City Name, Team Vitals - CITYNAME</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0xC80 (type=combo, length=8, startBit=0)</t>
+          <t>0x2E6 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0xC80 (type=combo, length=8, startBit=0)</t>
+          <t>0x2E6 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0xC80 (type=combo, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr"/>
+          <t>0x2E6 (type=string, length=320, startBit=0)</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>0x306 (type=WString, length=24)</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0x0 (type=Pointer, length=8)</t>
+          <t>0x0 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0x48 (type=Pointer, length=8)</t>
+          <t>0x48 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0x50 (type=Pointer, length=8)</t>
+          <t>0x50 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0x58 (type=Pointer, length=8)</t>
+          <t>0x58 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0x60 (type=Pointer, length=8)</t>
+          <t>0x60 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0x68 (type=Pointer, length=8)</t>
+          <t>0x68 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0x8 (type=Pointer, length=8)</t>
+          <t>0x8 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0x10 (type=Pointer, length=8)</t>
+          <t>0x10 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0x18 (type=Pointer, length=8)</t>
+          <t>0x18 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0x20 (type=Pointer, length=8)</t>
+          <t>0x20 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0x28 (type=Pointer, length=8)</t>
+          <t>0x28 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0x30 (type=Pointer, length=8)</t>
+          <t>0x30 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0x38 (type=Pointer, length=8)</t>
+          <t>0x38 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0x40 (type=Pointer, length=8)</t>
+          <t>0x40 (type=Pointer, length=0)</t>
         </is>
       </c>
     </row>
